--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructor(done)" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1324">
   <si>
     <t>Agile</t>
   </si>
@@ -1937,9 +1937,6 @@
     <t>C1000000-0000-0000-0000-000000000010</t>
   </si>
   <si>
-    <t>C1000000-0000-0000-0000-000000000011</t>
-  </si>
-  <si>
     <t>C1000000-0000-0000-0000-000000000012</t>
   </si>
   <si>
@@ -2417,9 +2414,6 @@
     <t>C111111-1111-1111-1111-111111111176</t>
   </si>
   <si>
-    <t>C111111-1111-1111-1111-111111111177</t>
-  </si>
-  <si>
     <t>C111111-1111-1111-1111-111111111178</t>
   </si>
   <si>
@@ -3783,9 +3777,6 @@
   </si>
   <si>
     <t>Information is often the most valuable enterprise asset in today''s knowledge economy. Data is rationalised to create information, which in turn becomes knowledge – and knowledge is the basis for wisdom, and the fuel for analytics, which is critical in decision-making.</t>
-  </si>
-  <si>
-    <t>This course is a 3-day training on Continuous Delivery (CD)  practices, essential for Agile software development teams that aspire to keep their software ''ready for release'' at any point in time. Topics covered include automated build, continuous integration and automated release.</t>
   </si>
   <si>
     <t>Do you know what to do with your company data? Do you want to know how you can increase your company''s profitability? This course teaches you to segment and profile customers so that you can better understand them and know when to market to the right customer, with the right product and through the right channel.</t>
@@ -4476,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4490,24 +4481,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C2" s="2">
         <v>123456</v>
@@ -4518,10 +4509,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C3" s="2">
         <v>123456</v>
@@ -4532,10 +4523,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
@@ -4546,10 +4537,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C5" s="2">
         <v>123456</v>
@@ -4560,10 +4551,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C6" s="2">
         <v>123456</v>
@@ -4574,10 +4565,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C7" s="2">
         <v>123456</v>
@@ -4588,10 +4579,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C8" s="2">
         <v>123456</v>
@@ -4602,10 +4593,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C9" s="2">
         <v>123456</v>
@@ -4616,10 +4607,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C10" s="2">
         <v>123456</v>
@@ -4630,7 +4621,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>398</v>
@@ -4644,7 +4635,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>399</v>
@@ -4658,7 +4649,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>400</v>
@@ -4672,7 +4663,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>401</v>
@@ -4686,7 +4677,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>402</v>
@@ -4700,7 +4691,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>403</v>
@@ -4714,7 +4705,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>404</v>
@@ -4728,7 +4719,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>405</v>
@@ -4742,7 +4733,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>406</v>
@@ -4771,292 +4762,292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -5207,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5261,7 +5252,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>72</v>
@@ -5290,7 +5281,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>73</v>
@@ -5319,7 +5310,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>74</v>
@@ -5348,7 +5339,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>75</v>
@@ -5377,7 +5368,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -5406,7 +5397,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>77</v>
@@ -5464,7 +5455,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
@@ -5493,7 +5484,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>80</v>
@@ -5522,7 +5513,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>81</v>
@@ -5551,7 +5542,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>81</v>
@@ -5580,10 +5571,10 @@
         <v>565</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -5609,10 +5600,10 @@
         <v>566</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -5638,10 +5629,10 @@
         <v>567</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -5667,7 +5658,7 @@
         <v>568</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>560</v>
@@ -5696,7 +5687,7 @@
         <v>569</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>561</v>
@@ -5725,7 +5716,7 @@
         <v>570</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>562</v>
@@ -5754,7 +5745,7 @@
         <v>571</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>563</v>
@@ -5783,7 +5774,7 @@
         <v>572</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>564</v>
@@ -5812,10 +5803,10 @@
         <v>581</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -5841,10 +5832,10 @@
         <v>582</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
@@ -5870,7 +5861,7 @@
         <v>583</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>595</v>
@@ -5899,7 +5890,7 @@
         <v>584</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>596</v>
@@ -5928,7 +5919,7 @@
         <v>585</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>597</v>
@@ -5957,7 +5948,7 @@
         <v>586</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>598</v>
@@ -5986,7 +5977,7 @@
         <v>587</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>599</v>
@@ -6018,7 +6009,7 @@
         <v>600</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
@@ -6044,7 +6035,7 @@
         <v>602</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>603</v>
@@ -6073,7 +6064,7 @@
         <v>606</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>608</v>
@@ -6102,10 +6093,10 @@
         <v>607</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -6160,7 +6151,7 @@
         <v>613</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>615</v>
@@ -6192,7 +6183,7 @@
         <v>618</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>29</v>
@@ -6308,7 +6299,7 @@
         <v>633</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -6331,56 +6322,27 @@
         <v>637</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1253</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>866.7</v>
+        <v>2140</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2140</v>
-      </c>
-      <c r="I40" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6392,10 +6354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6409,30 +6371,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -6444,7 +6406,7 @@
         <v>42251</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -6455,7 +6417,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
@@ -6467,7 +6429,7 @@
         <v>42251</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -6478,7 +6440,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -6490,7 +6452,7 @@
         <v>42251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -6501,7 +6463,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
@@ -6513,7 +6475,7 @@
         <v>42251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -6524,7 +6486,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -6536,7 +6498,7 @@
         <v>42251</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -6547,7 +6509,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
@@ -6559,7 +6521,7 @@
         <v>42251</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -6570,7 +6532,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -6582,7 +6544,7 @@
         <v>42251</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -6593,7 +6555,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>49</v>
@@ -6605,7 +6567,7 @@
         <v>42251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -6616,7 +6578,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -6628,7 +6590,7 @@
         <v>42251</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -6639,7 +6601,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>51</v>
@@ -6651,7 +6613,7 @@
         <v>42251</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -6662,7 +6624,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -6674,7 +6636,7 @@
         <v>42251</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -6685,7 +6647,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>565</v>
@@ -6697,7 +6659,7 @@
         <v>42251</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -6708,7 +6670,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>566</v>
@@ -6720,7 +6682,7 @@
         <v>42251</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -6731,7 +6693,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>567</v>
@@ -6743,7 +6705,7 @@
         <v>42251</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -6754,7 +6716,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>568</v>
@@ -6766,7 +6728,7 @@
         <v>42251</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -6777,7 +6739,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>569</v>
@@ -6789,7 +6751,7 @@
         <v>42251</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -6800,7 +6762,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>570</v>
@@ -6812,7 +6774,7 @@
         <v>42251</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -6823,7 +6785,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>571</v>
@@ -6835,7 +6797,7 @@
         <v>42251</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -6846,7 +6808,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>572</v>
@@ -6858,7 +6820,7 @@
         <v>42251</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -6869,7 +6831,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>581</v>
@@ -6881,7 +6843,7 @@
         <v>42251</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -6892,7 +6854,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>582</v>
@@ -6904,7 +6866,7 @@
         <v>42251</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -6915,7 +6877,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>583</v>
@@ -6927,7 +6889,7 @@
         <v>42251</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -6938,7 +6900,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>584</v>
@@ -6950,7 +6912,7 @@
         <v>42251</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -6961,7 +6923,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>585</v>
@@ -6973,7 +6935,7 @@
         <v>42251</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -6984,7 +6946,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>586</v>
@@ -6996,7 +6958,7 @@
         <v>42251</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -7007,7 +6969,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>587</v>
@@ -7019,7 +6981,7 @@
         <v>42251</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -7030,7 +6992,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>601</v>
@@ -7042,7 +7004,7 @@
         <v>42251</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -7053,7 +7015,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>602</v>
@@ -7065,7 +7027,7 @@
         <v>42251</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -7076,7 +7038,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>606</v>
@@ -7088,7 +7050,7 @@
         <v>42251</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -7099,7 +7061,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>607</v>
@@ -7111,7 +7073,7 @@
         <v>42251</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -7122,7 +7084,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>612</v>
@@ -7134,7 +7096,7 @@
         <v>42251</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -7145,7 +7107,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>613</v>
@@ -7157,7 +7119,7 @@
         <v>42251</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -7168,7 +7130,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>621</v>
@@ -7180,7 +7142,7 @@
         <v>42251</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -7191,7 +7153,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>622</v>
@@ -7203,7 +7165,7 @@
         <v>42251</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -7214,7 +7176,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>631</v>
@@ -7226,7 +7188,7 @@
         <v>42251</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -7237,7 +7199,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>632</v>
@@ -7249,7 +7211,7 @@
         <v>42251</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -7260,7 +7222,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>634</v>
@@ -7272,7 +7234,7 @@
         <v>42251</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -7286,7 +7248,7 @@
         <v>758</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>635</v>
       </c>
       <c r="C39" s="6">
         <v>42248</v>
@@ -7295,7 +7257,7 @@
         <v>42251</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -7308,14 +7270,14 @@
       <c r="A40" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>635</v>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="6">
-        <v>42248</v>
+        <v>42269</v>
       </c>
       <c r="D40" s="6">
-        <v>42251</v>
+        <v>42272</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>682</v>
@@ -7332,13 +7294,13 @@
         <v>760</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6">
-        <v>42248</v>
+        <v>42269</v>
       </c>
       <c r="D41" s="6">
-        <v>42251</v>
+        <v>42272</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>683</v>
@@ -7355,7 +7317,7 @@
         <v>761</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
         <v>42269</v>
@@ -7378,7 +7340,7 @@
         <v>762</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6">
         <v>42269</v>
@@ -7401,7 +7363,7 @@
         <v>763</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6">
         <v>42269</v>
@@ -7424,7 +7386,7 @@
         <v>764</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="6">
         <v>42269</v>
@@ -7447,7 +7409,7 @@
         <v>765</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6">
         <v>42269</v>
@@ -7470,7 +7432,7 @@
         <v>766</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" s="6">
         <v>42269</v>
@@ -7493,7 +7455,7 @@
         <v>767</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6">
         <v>42269</v>
@@ -7516,7 +7478,7 @@
         <v>768</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="6">
         <v>42269</v>
@@ -7539,7 +7501,7 @@
         <v>769</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="6">
         <v>42269</v>
@@ -7561,8 +7523,8 @@
       <c r="A51" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
+      <c r="B51" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C51" s="6">
         <v>42269</v>
@@ -7585,7 +7547,7 @@
         <v>771</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C52" s="6">
         <v>42269</v>
@@ -7608,7 +7570,7 @@
         <v>772</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C53" s="6">
         <v>42269</v>
@@ -7631,7 +7593,7 @@
         <v>773</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C54" s="6">
         <v>42269</v>
@@ -7654,7 +7616,7 @@
         <v>774</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C55" s="6">
         <v>42269</v>
@@ -7677,7 +7639,7 @@
         <v>775</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C56" s="6">
         <v>42269</v>
@@ -7700,7 +7662,7 @@
         <v>776</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C57" s="6">
         <v>42269</v>
@@ -7723,7 +7685,7 @@
         <v>777</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C58" s="6">
         <v>42269</v>
@@ -7746,7 +7708,7 @@
         <v>778</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C59" s="6">
         <v>42269</v>
@@ -7769,7 +7731,7 @@
         <v>779</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C60" s="6">
         <v>42269</v>
@@ -7792,7 +7754,7 @@
         <v>780</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C61" s="6">
         <v>42269</v>
@@ -7815,7 +7777,7 @@
         <v>781</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C62" s="6">
         <v>42269</v>
@@ -7838,7 +7800,7 @@
         <v>782</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C63" s="6">
         <v>42269</v>
@@ -7861,7 +7823,7 @@
         <v>783</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C64" s="6">
         <v>42269</v>
@@ -7884,7 +7846,7 @@
         <v>784</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C65" s="6">
         <v>42269</v>
@@ -7907,7 +7869,7 @@
         <v>785</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="C66" s="6">
         <v>42269</v>
@@ -7930,7 +7892,7 @@
         <v>786</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C67" s="6">
         <v>42269</v>
@@ -7953,7 +7915,7 @@
         <v>787</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C68" s="6">
         <v>42269</v>
@@ -7976,7 +7938,7 @@
         <v>788</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C69" s="6">
         <v>42269</v>
@@ -7999,7 +7961,7 @@
         <v>789</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C70" s="6">
         <v>42269</v>
@@ -8022,7 +7984,7 @@
         <v>790</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C71" s="6">
         <v>42269</v>
@@ -8045,7 +8007,7 @@
         <v>791</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C72" s="6">
         <v>42269</v>
@@ -8068,7 +8030,7 @@
         <v>792</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C73" s="6">
         <v>42269</v>
@@ -8091,7 +8053,7 @@
         <v>793</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C74" s="6">
         <v>42269</v>
@@ -8114,7 +8076,7 @@
         <v>794</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C75" s="6">
         <v>42269</v>
@@ -8137,7 +8099,7 @@
         <v>795</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C76" s="6">
         <v>42269</v>
@@ -8160,7 +8122,7 @@
         <v>796</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C77" s="6">
         <v>42269</v>
@@ -8175,52 +8137,6 @@
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="6">
-        <v>42269</v>
-      </c>
-      <c r="D78" s="6">
-        <v>42272</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C79" s="6">
-        <v>42269</v>
-      </c>
-      <c r="D79" s="6">
-        <v>42272</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2">
         <v>10</v>
       </c>
     </row>
@@ -11803,28 +11719,28 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>318</v>
@@ -11833,10 +11749,10 @@
         <v>320</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>157</v>
@@ -11845,3988 +11761,3988 @@
         <v>321</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>159</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H2" s="6">
         <v>29221</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J2" s="2">
         <v>90000000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P2" s="2">
         <v>1000</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H3" s="6">
         <v>29221</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J3" s="2">
         <v>90000001</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P3" s="2">
         <v>1000</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H4" s="6">
         <v>29221</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J4" s="2">
         <v>90000002</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P4" s="2">
         <v>1000</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H5" s="6">
         <v>29221</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J5" s="2">
         <v>90000003</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P5" s="2">
         <v>1000</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H6" s="6">
         <v>29221</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J6" s="2">
         <v>90000004</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>86</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P6" s="2">
         <v>1000</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H7" s="6">
         <v>29221</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J7" s="2">
         <v>90000005</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P7" s="2">
         <v>1000</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H8" s="6">
         <v>29221</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J8" s="2">
         <v>90000006</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P8" s="2">
         <v>1000</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H9" s="6">
         <v>29221</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J9" s="2">
         <v>90000007</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P9" s="2">
         <v>1000</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H10" s="6">
         <v>29221</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J10" s="2">
         <v>90000008</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P10" s="2">
         <v>1000</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H11" s="6">
         <v>29221</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J11" s="2">
         <v>90000009</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P11" s="2">
         <v>1000</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H12" s="6">
         <v>29221</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J12" s="2">
         <v>90000010</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P12" s="2">
         <v>1000</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H13" s="6">
         <v>29221</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J13" s="2">
         <v>90000011</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P13" s="2">
         <v>1000</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H14" s="6">
         <v>29221</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J14" s="2">
         <v>90000012</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P14" s="2">
         <v>1000</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H15" s="6">
         <v>29221</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J15" s="2">
         <v>90000013</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P15" s="2">
         <v>1000</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H16" s="6">
         <v>29221</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J16" s="2">
         <v>90000014</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P16" s="2">
         <v>1000</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H17" s="6">
         <v>29221</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J17" s="2">
         <v>90000015</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P17" s="2">
         <v>1000</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F18" s="2">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H18" s="6">
         <v>29221</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J18" s="2">
         <v>90000016</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H19" s="6">
         <v>29221</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J19" s="2">
         <v>90000017</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P19" s="2">
         <v>1000</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H20" s="6">
         <v>29221</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J20" s="2">
         <v>90000018</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P20" s="2">
         <v>1000</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H21" s="6">
         <v>29221</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J21" s="2">
         <v>90000019</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P21" s="2">
         <v>1000</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F22" s="2">
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H22" s="6">
         <v>29221</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J22" s="2">
         <v>90000020</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>102</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P22" s="2">
         <v>1000</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H23" s="6">
         <v>29221</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J23" s="2">
         <v>90000021</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>103</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P23" s="2">
         <v>1000</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H24" s="6">
         <v>29221</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J24" s="2">
         <v>90000022</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P24" s="2">
         <v>1000</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H25" s="6">
         <v>29221</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J25" s="2">
         <v>90000023</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P25" s="2">
         <v>1000</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H26" s="6">
         <v>29221</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J26" s="2">
         <v>90000024</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>106</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P26" s="2">
         <v>1000</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H27" s="6">
         <v>29221</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J27" s="2">
         <v>90000025</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P27" s="2">
         <v>1000</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H28" s="6">
         <v>29221</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J28" s="2">
         <v>90000026</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P28" s="2">
         <v>1000</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H29" s="6">
         <v>29221</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J29" s="2">
         <v>90000027</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>109</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P29" s="2">
         <v>1000</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H30" s="6">
         <v>29221</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J30" s="2">
         <v>90000028</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P30" s="2">
         <v>1000</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H31" s="6">
         <v>29221</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J31" s="2">
         <v>90000029</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>111</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P31" s="2">
         <v>1000</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H32" s="6">
         <v>29221</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J32" s="2">
         <v>90000030</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P32" s="2">
         <v>1000</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H33" s="6">
         <v>29221</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J33" s="2">
         <v>90000031</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>113</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P33" s="2">
         <v>1000</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H34" s="6">
         <v>29221</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J34" s="2">
         <v>90000032</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P34" s="2">
         <v>1000</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H35" s="6">
         <v>29221</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J35" s="2">
         <v>90000033</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>115</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P35" s="2">
         <v>1000</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H36" s="6">
         <v>29221</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J36" s="2">
         <v>90000034</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>116</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P36" s="2">
         <v>1000</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H37" s="6">
         <v>29221</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J37" s="2">
         <v>90000035</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>117</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P37" s="2">
         <v>1000</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H38" s="6">
         <v>29221</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J38" s="2">
         <v>90000036</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>118</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P38" s="2">
         <v>1000</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H39" s="6">
         <v>29221</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J39" s="2">
         <v>90000037</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>119</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P39" s="2">
         <v>1000</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H40" s="6">
         <v>29221</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J40" s="2">
         <v>90000038</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P40" s="2">
         <v>1000</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H41" s="6">
         <v>29221</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J41" s="2">
         <v>90000039</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>121</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P41" s="2">
         <v>1000</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H42" s="6">
         <v>29221</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J42" s="2">
         <v>90000040</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>122</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P42" s="2">
         <v>1000</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H43" s="6">
         <v>29221</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J43" s="2">
         <v>90000041</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P43" s="2">
         <v>1000</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H44" s="6">
         <v>29221</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J44" s="2">
         <v>90000042</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P44" s="2">
         <v>1000</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H45" s="6">
         <v>29221</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J45" s="2">
         <v>90000043</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P45" s="2">
         <v>1000</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H46" s="6">
         <v>29221</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J46" s="2">
         <v>90000044</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>126</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P46" s="2">
         <v>1000</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H47" s="6">
         <v>29221</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J47" s="2">
         <v>90000045</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P47" s="2">
         <v>1000</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H48" s="6">
         <v>29221</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J48" s="2">
         <v>90000046</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P48" s="2">
         <v>1000</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H49" s="6">
         <v>29221</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J49" s="2">
         <v>90000047</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>129</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P49" s="2">
         <v>1000</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H50" s="6">
         <v>29221</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J50" s="2">
         <v>90000048</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>130</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P50" s="2">
         <v>1000</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H51" s="6">
         <v>29221</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J51" s="2">
         <v>90000049</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>131</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P51" s="2">
         <v>1000</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H52" s="6">
         <v>29221</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J52" s="2">
         <v>90000050</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P52" s="2">
         <v>1000</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H53" s="6">
         <v>29221</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J53" s="2">
         <v>90000051</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P53" s="2">
         <v>1000</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H54" s="6">
         <v>29221</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J54" s="2">
         <v>90000052</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>134</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P54" s="2">
         <v>1000</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H55" s="6">
         <v>29221</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J55" s="2">
         <v>90000053</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>135</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P55" s="2">
         <v>1000</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H56" s="6">
         <v>29221</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J56" s="2">
         <v>90000054</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P56" s="2">
         <v>1000</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H57" s="6">
         <v>29221</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J57" s="2">
         <v>90000055</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>137</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P57" s="2">
         <v>1000</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H58" s="6">
         <v>29221</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J58" s="2">
         <v>90000056</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>138</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P58" s="2">
         <v>1000</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H59" s="6">
         <v>29221</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J59" s="2">
         <v>90000057</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P59" s="2">
         <v>1000</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H60" s="6">
         <v>29221</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J60" s="2">
         <v>90000058</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P60" s="2">
         <v>1000</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H61" s="6">
         <v>29221</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J61" s="2">
         <v>90000059</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P61" s="2">
         <v>1000</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H62" s="6">
         <v>29221</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J62" s="2">
         <v>90000060</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>142</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P62" s="2">
         <v>1000</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H63" s="6">
         <v>29221</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J63" s="2">
         <v>90000061</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P63" s="2">
         <v>1000</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H64" s="6">
         <v>29221</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J64" s="2">
         <v>90000062</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>144</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P64" s="2">
         <v>1000</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H65" s="6">
         <v>29221</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J65" s="2">
         <v>90000063</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>145</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P65" s="2">
         <v>1000</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H66" s="6">
         <v>29221</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J66" s="2">
         <v>90000064</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>146</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P66" s="2">
         <v>1000</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H67" s="6">
         <v>29221</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J67" s="2">
         <v>90000065</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>147</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P67" s="2">
         <v>1000</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H68" s="6">
         <v>29221</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J68" s="2">
         <v>90000066</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P68" s="2">
         <v>1000</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H69" s="6">
         <v>29221</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J69" s="2">
         <v>90000067</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>149</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P69" s="2">
         <v>1000</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H70" s="6">
         <v>29221</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J70" s="2">
         <v>90000068</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>150</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P70" s="2">
         <v>1000</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H71" s="6">
         <v>29221</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J71" s="2">
         <v>90000069</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>151</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P71" s="2">
         <v>1000</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H72" s="6">
         <v>29221</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J72" s="2">
         <v>90000070</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>152</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P72" s="2">
         <v>1000</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H73" s="6">
         <v>29221</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J73" s="2">
         <v>90000071</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>153</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P73" s="2">
         <v>1000</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H74" s="6">
         <v>29221</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J74" s="2">
         <v>90000072</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>154</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P74" s="2">
         <v>1000</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H75" s="6">
         <v>29221</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J75" s="2">
         <v>90000073</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>155</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P75" s="2">
         <v>1000</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H76" s="6">
         <v>29221</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J76" s="2">
         <v>90000074</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>156</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P76" s="2">
         <v>1000</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -15858,34 +15774,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1126</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -15893,31 +15809,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F2" s="2">
         <v>1000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J2" s="2">
         <v>666666</v>
@@ -15928,31 +15844,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F3" s="2">
         <v>1000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J3" s="2">
         <v>666666</v>
@@ -15963,31 +15879,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J4" s="2">
         <v>666666</v>
@@ -15998,31 +15914,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J5" s="2">
         <v>666666</v>
@@ -16033,31 +15949,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F6" s="2">
         <v>1000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J6" s="2">
         <v>666666</v>
@@ -16068,31 +15984,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F7" s="2">
         <v>1000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J7" s="2">
         <v>666666</v>
@@ -16103,31 +16019,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F8" s="2">
         <v>1000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J8" s="2">
         <v>666666</v>
@@ -16138,31 +16054,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J9" s="2">
         <v>666666</v>
@@ -16173,31 +16089,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F10" s="2">
         <v>1000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J10" s="2">
         <v>666666</v>
@@ -16208,31 +16124,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F11" s="2">
         <v>1000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J11" s="2">
         <v>666666</v>
@@ -16243,31 +16159,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F12" s="2">
         <v>1000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J12" s="2">
         <v>666666</v>
@@ -16278,31 +16194,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F13" s="2">
         <v>1000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J13" s="2">
         <v>666666</v>
@@ -16313,31 +16229,31 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F14" s="2">
         <v>1000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J14" s="2">
         <v>666666</v>
@@ -16348,31 +16264,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F15" s="2">
         <v>1000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J15" s="2">
         <v>666666</v>
@@ -16383,31 +16299,31 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F16" s="2">
         <v>1000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J16" s="2">
         <v>666666</v>
@@ -16418,31 +16334,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J17" s="2">
         <v>666666</v>
@@ -16453,31 +16369,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F18" s="2">
         <v>1000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J18" s="2">
         <v>666666</v>
@@ -16488,31 +16404,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F19" s="2">
         <v>1000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J19" s="2">
         <v>666666</v>
@@ -16523,31 +16439,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F20" s="2">
         <v>1000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J20" s="2">
         <v>666666</v>
@@ -16558,31 +16474,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F21" s="2">
         <v>1000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J21" s="2">
         <v>666666</v>
@@ -16593,31 +16509,31 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F22" s="2">
         <v>1000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J22" s="2">
         <v>666666</v>
@@ -16628,31 +16544,31 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F23" s="2">
         <v>1000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J23" s="2">
         <v>666666</v>
@@ -16663,31 +16579,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F24" s="2">
         <v>1000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J24" s="2">
         <v>666666</v>
@@ -16698,31 +16614,31 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F25" s="2">
         <v>1000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J25" s="2">
         <v>666666</v>
@@ -16733,31 +16649,31 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F26" s="2">
         <v>1000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J26" s="2">
         <v>666666</v>
@@ -16768,31 +16684,31 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F27" s="2">
         <v>1000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J27" s="2">
         <v>666666</v>
@@ -16803,31 +16719,31 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F28" s="2">
         <v>1000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J28" s="2">
         <v>666666</v>
@@ -16838,31 +16754,31 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F29" s="2">
         <v>1000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J29" s="2">
         <v>666666</v>
@@ -16873,31 +16789,31 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F30" s="2">
         <v>1000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J30" s="2">
         <v>666666</v>
@@ -16908,31 +16824,31 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F31" s="2">
         <v>1000</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J31" s="2">
         <v>666666</v>
@@ -16943,31 +16859,31 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F32" s="2">
         <v>1000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J32" s="2">
         <v>666666</v>
@@ -16978,31 +16894,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F33" s="2">
         <v>1000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J33" s="2">
         <v>666666</v>
@@ -17013,31 +16929,31 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F34" s="2">
         <v>1000</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J34" s="2">
         <v>666666</v>
@@ -17048,31 +16964,31 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F35" s="2">
         <v>1000</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J35" s="2">
         <v>666666</v>
@@ -17083,31 +16999,31 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F36" s="2">
         <v>1000</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>116</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J36" s="2">
         <v>666666</v>
@@ -17118,31 +17034,31 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F37" s="2">
         <v>1000</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J37" s="2">
         <v>666666</v>
@@ -17153,31 +17069,31 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F38" s="2">
         <v>1000</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J38" s="2">
         <v>666666</v>
@@ -17188,31 +17104,31 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F39" s="2">
         <v>1000</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J39" s="2">
         <v>666666</v>
@@ -17223,31 +17139,31 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F40" s="2">
         <v>1000</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J40" s="2">
         <v>666666</v>
@@ -17258,31 +17174,31 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F41" s="2">
         <v>1000</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J41" s="2">
         <v>666666</v>
@@ -17293,31 +17209,31 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F42" s="2">
         <v>1000</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J42" s="2">
         <v>666666</v>
@@ -17328,31 +17244,31 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F43" s="2">
         <v>1000</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J43" s="2">
         <v>666666</v>
@@ -17363,31 +17279,31 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F44" s="2">
         <v>1000</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J44" s="2">
         <v>666666</v>
@@ -17398,31 +17314,31 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F45" s="2">
         <v>1000</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J45" s="2">
         <v>666666</v>
@@ -17433,31 +17349,31 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F46" s="2">
         <v>1000</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>126</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J46" s="2">
         <v>666666</v>
@@ -17468,31 +17384,31 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F47" s="2">
         <v>1000</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J47" s="2">
         <v>666666</v>
@@ -17503,31 +17419,31 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F48" s="2">
         <v>1000</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J48" s="2">
         <v>666666</v>
@@ -17538,31 +17454,31 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F49" s="2">
         <v>1000</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J49" s="2">
         <v>666666</v>
@@ -17573,31 +17489,31 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F50" s="2">
         <v>1000</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J50" s="2">
         <v>666666</v>
@@ -17608,31 +17524,31 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F51" s="2">
         <v>1000</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J51" s="2">
         <v>666666</v>
@@ -17643,31 +17559,31 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D52" s="2">
         <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F52" s="2">
         <v>1000</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J52" s="2">
         <v>666666</v>
@@ -17678,31 +17594,31 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F53" s="2">
         <v>1000</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J53" s="2">
         <v>666666</v>
@@ -17713,31 +17629,31 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F54" s="2">
         <v>1000</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J54" s="2">
         <v>666666</v>
@@ -17748,31 +17664,31 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F55" s="2">
         <v>1000</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J55" s="2">
         <v>666666</v>
@@ -17783,31 +17699,31 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F56" s="2">
         <v>1000</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>136</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J56" s="2">
         <v>666666</v>
@@ -17818,31 +17734,31 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F57" s="2">
         <v>1000</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>137</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J57" s="2">
         <v>666666</v>
@@ -17853,31 +17769,31 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F58" s="2">
         <v>1000</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J58" s="2">
         <v>666666</v>
@@ -17888,31 +17804,31 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F59" s="2">
         <v>1000</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J59" s="2">
         <v>666666</v>
@@ -17923,31 +17839,31 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F60" s="2">
         <v>1000</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J60" s="2">
         <v>666666</v>
@@ -17958,31 +17874,31 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F61" s="2">
         <v>1000</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J61" s="2">
         <v>666666</v>
@@ -17993,31 +17909,31 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F62" s="2">
         <v>1000</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>142</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J62" s="2">
         <v>666666</v>
@@ -18028,31 +17944,31 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F63" s="2">
         <v>1000</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J63" s="2">
         <v>666666</v>
@@ -18063,31 +17979,31 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F64" s="2">
         <v>1000</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>144</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J64" s="2">
         <v>666666</v>
@@ -18098,31 +18014,31 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F65" s="2">
         <v>1000</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J65" s="2">
         <v>666666</v>
@@ -18133,31 +18049,31 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F66" s="2">
         <v>1000</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J66" s="2">
         <v>666666</v>
@@ -18168,31 +18084,31 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F67" s="2">
         <v>1000</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J67" s="2">
         <v>666666</v>
@@ -18203,31 +18119,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F68" s="2">
         <v>1000</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>148</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J68" s="2">
         <v>666666</v>
@@ -18238,31 +18154,31 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F69" s="2">
         <v>1000</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>149</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J69" s="2">
         <v>666666</v>
@@ -18273,31 +18189,31 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F70" s="2">
         <v>1000</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>150</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J70" s="2">
         <v>666666</v>
@@ -18308,31 +18224,31 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F71" s="2">
         <v>1000</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>151</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J71" s="2">
         <v>666666</v>
@@ -18343,31 +18259,31 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F72" s="2">
         <v>1000</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>152</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J72" s="2">
         <v>666666</v>
@@ -18378,31 +18294,31 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F73" s="2">
         <v>1000</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>153</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J73" s="2">
         <v>666666</v>
@@ -18413,31 +18329,31 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D74" s="2">
         <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F74" s="2">
         <v>1000</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>154</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J74" s="2">
         <v>666666</v>
@@ -18448,31 +18364,31 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D75" s="2">
         <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F75" s="2">
         <v>1000</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J75" s="2">
         <v>666666</v>
@@ -18483,31 +18399,31 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F76" s="2">
         <v>1000</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J76" s="2">
         <v>666666</v>
@@ -18538,27 +18454,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1" t="s">
         <v>1203</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -18566,13 +18482,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
@@ -4001,8 +4001,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4078,6 +4078,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4156,6 +4161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4190,6 +4196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4365,20 +4372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4394,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4426,7 +4433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4434,7 +4441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4464,14 +4471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -4479,7 +4486,7 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1210</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1212</v>
       </c>
@@ -4507,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1213</v>
       </c>
@@ -4521,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1214</v>
       </c>
@@ -4535,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1215</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1216</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1217</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1218</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1219</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1220</v>
       </c>
@@ -4619,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1221</v>
       </c>
@@ -4633,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1222</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1223</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1224</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1225</v>
       </c>
@@ -4689,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1226</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1227</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1228</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1229</v>
       </c>
@@ -4751,301 +4758,301 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>1323</v>
       </c>
@@ -5056,21 +5063,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5081,7 +5088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5114,7 +5121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5147,7 +5154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5158,7 +5165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5169,7 +5176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5180,7 +5187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5197,14 +5204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -5215,7 +5222,7 @@
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>549</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>550</v>
       </c>
@@ -5302,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>551</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>552</v>
       </c>
@@ -5360,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>553</v>
       </c>
@@ -5389,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>554</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>555</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>556</v>
       </c>
@@ -5476,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>557</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>558</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>559</v>
       </c>
@@ -5563,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>573</v>
       </c>
@@ -5592,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>574</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>575</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>576</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>577</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>578</v>
       </c>
@@ -5737,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>579</v>
       </c>
@@ -5766,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>580</v>
       </c>
@@ -5795,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>588</v>
       </c>
@@ -5824,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>589</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>590</v>
       </c>
@@ -5882,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>591</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>592</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>593</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>594</v>
       </c>
@@ -5998,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>604</v>
       </c>
@@ -6027,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>605</v>
       </c>
@@ -6056,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>609</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>610</v>
       </c>
@@ -6114,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>616</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>617</v>
       </c>
@@ -6172,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>623</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>624</v>
       </c>
@@ -6230,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>629</v>
       </c>
@@ -6259,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>630</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>636</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>637</v>
       </c>
@@ -6353,14 +6360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -6369,7 +6376,7 @@
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>639</v>
       </c>
@@ -6392,7 +6399,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>723</v>
       </c>
@@ -6415,7 +6422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>724</v>
       </c>
@@ -6438,7 +6445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>725</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>726</v>
       </c>
@@ -6484,7 +6491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>727</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>728</v>
       </c>
@@ -6530,7 +6537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>729</v>
       </c>
@@ -6553,7 +6560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>730</v>
       </c>
@@ -6576,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>731</v>
       </c>
@@ -6599,7 +6606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>732</v>
       </c>
@@ -6622,7 +6629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>720</v>
       </c>
@@ -6645,7 +6652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>721</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>722</v>
       </c>
@@ -6691,7 +6698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>733</v>
       </c>
@@ -6714,7 +6721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>734</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>735</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>736</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>737</v>
       </c>
@@ -6806,7 +6813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>738</v>
       </c>
@@ -6829,7 +6836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>739</v>
       </c>
@@ -6852,7 +6859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>740</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>741</v>
       </c>
@@ -6898,7 +6905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>742</v>
       </c>
@@ -6921,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>743</v>
       </c>
@@ -6944,7 +6951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>744</v>
       </c>
@@ -6967,7 +6974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>745</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>746</v>
       </c>
@@ -7013,7 +7020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>747</v>
       </c>
@@ -7036,7 +7043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>748</v>
       </c>
@@ -7059,7 +7066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>749</v>
       </c>
@@ -7082,7 +7089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>750</v>
       </c>
@@ -7105,7 +7112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>751</v>
       </c>
@@ -7128,7 +7135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>752</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>753</v>
       </c>
@@ -7174,7 +7181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>754</v>
       </c>
@@ -7197,7 +7204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>755</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>756</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>758</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>759</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>760</v>
       </c>
@@ -7312,7 +7319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>761</v>
       </c>
@@ -7335,7 +7342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>762</v>
       </c>
@@ -7358,7 +7365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>763</v>
       </c>
@@ -7381,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>764</v>
       </c>
@@ -7404,7 +7411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>765</v>
       </c>
@@ -7427,7 +7434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>766</v>
       </c>
@@ -7450,7 +7457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>767</v>
       </c>
@@ -7473,7 +7480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>768</v>
       </c>
@@ -7496,7 +7503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>769</v>
       </c>
@@ -7519,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>770</v>
       </c>
@@ -7542,7 +7549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>771</v>
       </c>
@@ -7565,7 +7572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>772</v>
       </c>
@@ -7588,7 +7595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>773</v>
       </c>
@@ -7611,7 +7618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>774</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>775</v>
       </c>
@@ -7657,7 +7664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>776</v>
       </c>
@@ -7680,7 +7687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>777</v>
       </c>
@@ -7703,7 +7710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>778</v>
       </c>
@@ -7726,7 +7733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>779</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>780</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>781</v>
       </c>
@@ -7795,7 +7802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>782</v>
       </c>
@@ -7818,7 +7825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>783</v>
       </c>
@@ -7841,7 +7848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>784</v>
       </c>
@@ -7864,7 +7871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>785</v>
       </c>
@@ -7887,7 +7894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>786</v>
       </c>
@@ -7910,7 +7917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>787</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>788</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>789</v>
       </c>
@@ -7979,7 +7986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>790</v>
       </c>
@@ -8002,7 +8009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>791</v>
       </c>
@@ -8025,7 +8032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>792</v>
       </c>
@@ -8048,7 +8055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>793</v>
       </c>
@@ -8071,7 +8078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>794</v>
       </c>
@@ -8094,7 +8101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>795</v>
       </c>
@@ -8117,7 +8124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>796</v>
       </c>
@@ -8146,14 +8153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
@@ -8162,7 +8169,7 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -8185,7 +8192,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>243</v>
       </c>
@@ -8231,7 +8238,7 @@
         <v>123457</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>244</v>
       </c>
@@ -8254,7 +8261,7 @@
         <v>123458</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -8277,7 +8284,7 @@
         <v>123459</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -8300,7 +8307,7 @@
         <v>123460</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>123461</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -8346,7 +8353,7 @@
         <v>123462</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -8369,7 +8376,7 @@
         <v>123463</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -8392,7 +8399,7 @@
         <v>123464</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -8415,7 +8422,7 @@
         <v>123465</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>252</v>
       </c>
@@ -8438,7 +8445,7 @@
         <v>123466</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>253</v>
       </c>
@@ -8461,7 +8468,7 @@
         <v>123467</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -8484,7 +8491,7 @@
         <v>123468</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -8507,7 +8514,7 @@
         <v>123469</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>123470</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -8553,7 +8560,7 @@
         <v>123471</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -8576,7 +8583,7 @@
         <v>123472</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -8599,7 +8606,7 @@
         <v>123473</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -8622,7 +8629,7 @@
         <v>123474</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -8645,7 +8652,7 @@
         <v>123475</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -8668,7 +8675,7 @@
         <v>123476</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -8691,7 +8698,7 @@
         <v>123477</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -8714,7 +8721,7 @@
         <v>123478</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>265</v>
       </c>
@@ -8737,7 +8744,7 @@
         <v>123479</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>266</v>
       </c>
@@ -8760,7 +8767,7 @@
         <v>123480</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>267</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>123481</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -8806,7 +8813,7 @@
         <v>123482</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>269</v>
       </c>
@@ -8829,7 +8836,7 @@
         <v>123483</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -8852,7 +8859,7 @@
         <v>123484</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -8875,7 +8882,7 @@
         <v>123485</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>272</v>
       </c>
@@ -8898,7 +8905,7 @@
         <v>123486</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -8921,7 +8928,7 @@
         <v>123487</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>123488</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>275</v>
       </c>
@@ -8967,7 +8974,7 @@
         <v>123489</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>276</v>
       </c>
@@ -8990,7 +8997,7 @@
         <v>123490</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>277</v>
       </c>
@@ -9013,7 +9020,7 @@
         <v>123491</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -9036,7 +9043,7 @@
         <v>123492</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>279</v>
       </c>
@@ -9059,7 +9066,7 @@
         <v>123493</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>280</v>
       </c>
@@ -9082,7 +9089,7 @@
         <v>123494</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>281</v>
       </c>
@@ -9105,7 +9112,7 @@
         <v>123495</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -9128,7 +9135,7 @@
         <v>123496</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -9151,7 +9158,7 @@
         <v>123497</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>284</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>285</v>
       </c>
@@ -9197,7 +9204,7 @@
         <v>123499</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9220,7 +9227,7 @@
         <v>123500</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>287</v>
       </c>
@@ -9243,7 +9250,7 @@
         <v>123501</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -9266,7 +9273,7 @@
         <v>123502</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>289</v>
       </c>
@@ -9289,7 +9296,7 @@
         <v>123503</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>290</v>
       </c>
@@ -9312,7 +9319,7 @@
         <v>123504</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -9335,7 +9342,7 @@
         <v>123505</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>292</v>
       </c>
@@ -9358,7 +9365,7 @@
         <v>123506</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>293</v>
       </c>
@@ -9381,7 +9388,7 @@
         <v>123507</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>294</v>
       </c>
@@ -9404,7 +9411,7 @@
         <v>123508</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>295</v>
       </c>
@@ -9427,7 +9434,7 @@
         <v>123509</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>296</v>
       </c>
@@ -9450,7 +9457,7 @@
         <v>123510</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>297</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>123511</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>298</v>
       </c>
@@ -9496,7 +9503,7 @@
         <v>123512</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>299</v>
       </c>
@@ -9519,7 +9526,7 @@
         <v>123513</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -9542,7 +9549,7 @@
         <v>123514</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>301</v>
       </c>
@@ -9565,7 +9572,7 @@
         <v>123515</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>302</v>
       </c>
@@ -9588,7 +9595,7 @@
         <v>123516</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -9611,7 +9618,7 @@
         <v>123517</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>304</v>
       </c>
@@ -9634,7 +9641,7 @@
         <v>123518</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>305</v>
       </c>
@@ -9657,7 +9664,7 @@
         <v>123519</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>306</v>
       </c>
@@ -9680,7 +9687,7 @@
         <v>123520</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -9703,7 +9710,7 @@
         <v>123521</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>308</v>
       </c>
@@ -9726,7 +9733,7 @@
         <v>123522</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>309</v>
       </c>
@@ -9749,7 +9756,7 @@
         <v>123523</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>310</v>
       </c>
@@ -9772,7 +9779,7 @@
         <v>123524</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -9795,7 +9802,7 @@
         <v>123525</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>312</v>
       </c>
@@ -9818,7 +9825,7 @@
         <v>123526</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>313</v>
       </c>
@@ -9841,7 +9848,7 @@
         <v>123527</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -9864,7 +9871,7 @@
         <v>123528</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>315</v>
       </c>
@@ -9887,7 +9894,7 @@
         <v>123529</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -9910,7 +9917,7 @@
         <v>123530</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>164</v>
       </c>
@@ -9921,14 +9928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -9939,7 +9946,7 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -9962,7 +9969,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>474</v>
       </c>
@@ -9985,7 +9992,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -10008,7 +10015,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -10031,7 +10038,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>477</v>
       </c>
@@ -10054,7 +10061,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>478</v>
       </c>
@@ -10077,7 +10084,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -10100,7 +10107,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>480</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>481</v>
       </c>
@@ -10146,7 +10153,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -10169,7 +10176,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>483</v>
       </c>
@@ -10192,7 +10199,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>484</v>
       </c>
@@ -10215,7 +10222,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>485</v>
       </c>
@@ -10238,7 +10245,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>486</v>
       </c>
@@ -10261,7 +10268,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -10284,7 +10291,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>488</v>
       </c>
@@ -10307,7 +10314,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>489</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -10353,7 +10360,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>491</v>
       </c>
@@ -10376,7 +10383,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>492</v>
       </c>
@@ -10399,7 +10406,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>493</v>
       </c>
@@ -10422,7 +10429,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -10445,7 +10452,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>495</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>496</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>497</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>498</v>
       </c>
@@ -10537,7 +10544,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>499</v>
       </c>
@@ -10560,7 +10567,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>500</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>501</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>502</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>503</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>504</v>
       </c>
@@ -10675,7 +10682,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>505</v>
       </c>
@@ -10698,7 +10705,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>506</v>
       </c>
@@ -10721,7 +10728,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>507</v>
       </c>
@@ -10744,7 +10751,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>509</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>511</v>
       </c>
@@ -10836,7 +10843,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>512</v>
       </c>
@@ -10859,7 +10866,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>513</v>
       </c>
@@ -10882,7 +10889,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>514</v>
       </c>
@@ -10905,7 +10912,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>515</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>516</v>
       </c>
@@ -10951,7 +10958,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>517</v>
       </c>
@@ -10974,7 +10981,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>518</v>
       </c>
@@ -10997,7 +11004,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>519</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>520</v>
       </c>
@@ -11043,7 +11050,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>521</v>
       </c>
@@ -11066,7 +11073,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>522</v>
       </c>
@@ -11089,7 +11096,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>523</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>524</v>
       </c>
@@ -11135,7 +11142,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>525</v>
       </c>
@@ -11158,7 +11165,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>526</v>
       </c>
@@ -11181,7 +11188,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>527</v>
       </c>
@@ -11204,7 +11211,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>528</v>
       </c>
@@ -11227,7 +11234,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>529</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>530</v>
       </c>
@@ -11273,7 +11280,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>531</v>
       </c>
@@ -11296,7 +11303,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>532</v>
       </c>
@@ -11319,7 +11326,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -11342,7 +11349,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>534</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>535</v>
       </c>
@@ -11388,7 +11395,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>536</v>
       </c>
@@ -11411,7 +11418,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>537</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>538</v>
       </c>
@@ -11457,7 +11464,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>539</v>
       </c>
@@ -11480,7 +11487,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>540</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>541</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>542</v>
       </c>
@@ -11549,7 +11556,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>543</v>
       </c>
@@ -11572,7 +11579,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>544</v>
       </c>
@@ -11595,7 +11602,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>545</v>
       </c>
@@ -11618,7 +11625,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>546</v>
       </c>
@@ -11641,7 +11648,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>547</v>
       </c>
@@ -11664,7 +11671,7 @@
         <v>66668888</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>548</v>
       </c>
@@ -11693,14 +11700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -11717,7 +11724,7 @@
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>797</v>
       </c>
@@ -11770,7 +11777,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1044</v>
       </c>
@@ -11823,7 +11830,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1045</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1046</v>
       </c>
@@ -11929,7 +11936,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1047</v>
       </c>
@@ -11982,7 +11989,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1048</v>
       </c>
@@ -12035,7 +12042,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1049</v>
       </c>
@@ -12088,7 +12095,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1050</v>
       </c>
@@ -12141,7 +12148,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1051</v>
       </c>
@@ -12194,7 +12201,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1052</v>
       </c>
@@ -12247,7 +12254,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1053</v>
       </c>
@@ -12300,7 +12307,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1054</v>
       </c>
@@ -12353,7 +12360,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1055</v>
       </c>
@@ -12406,7 +12413,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1056</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1057</v>
       </c>
@@ -12512,7 +12519,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1058</v>
       </c>
@@ -12565,7 +12572,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1059</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1060</v>
       </c>
@@ -12671,7 +12678,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1061</v>
       </c>
@@ -12724,7 +12731,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1062</v>
       </c>
@@ -12777,7 +12784,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1063</v>
       </c>
@@ -12830,7 +12837,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1064</v>
       </c>
@@ -12883,7 +12890,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1065</v>
       </c>
@@ -12936,7 +12943,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1066</v>
       </c>
@@ -12989,7 +12996,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1067</v>
       </c>
@@ -13042,7 +13049,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1068</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1069</v>
       </c>
@@ -13148,7 +13155,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1070</v>
       </c>
@@ -13201,7 +13208,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1071</v>
       </c>
@@ -13254,7 +13261,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1072</v>
       </c>
@@ -13307,7 +13314,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1073</v>
       </c>
@@ -13360,7 +13367,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1074</v>
       </c>
@@ -13413,7 +13420,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13466,7 +13473,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1076</v>
       </c>
@@ -13519,7 +13526,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1077</v>
       </c>
@@ -13572,7 +13579,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1078</v>
       </c>
@@ -13625,7 +13632,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1079</v>
       </c>
@@ -13678,7 +13685,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1080</v>
       </c>
@@ -13731,7 +13738,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1081</v>
       </c>
@@ -13784,7 +13791,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1082</v>
       </c>
@@ -13837,7 +13844,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1083</v>
       </c>
@@ -13890,7 +13897,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1084</v>
       </c>
@@ -13943,7 +13950,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1085</v>
       </c>
@@ -13996,7 +14003,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1086</v>
       </c>
@@ -14049,7 +14056,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1087</v>
       </c>
@@ -14102,7 +14109,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1088</v>
       </c>
@@ -14155,7 +14162,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1089</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1090</v>
       </c>
@@ -14261,7 +14268,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1091</v>
       </c>
@@ -14314,7 +14321,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1092</v>
       </c>
@@ -14367,7 +14374,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1093</v>
       </c>
@@ -14420,7 +14427,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1094</v>
       </c>
@@ -14473,7 +14480,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1095</v>
       </c>
@@ -14526,7 +14533,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1096</v>
       </c>
@@ -14579,7 +14586,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1097</v>
       </c>
@@ -14632,7 +14639,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1098</v>
       </c>
@@ -14685,7 +14692,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1099</v>
       </c>
@@ -14738,7 +14745,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1100</v>
       </c>
@@ -14791,7 +14798,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1101</v>
       </c>
@@ -14844,7 +14851,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1102</v>
       </c>
@@ -14897,7 +14904,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1103</v>
       </c>
@@ -14950,7 +14957,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1104</v>
       </c>
@@ -15003,7 +15010,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1105</v>
       </c>
@@ -15056,7 +15063,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1106</v>
       </c>
@@ -15109,7 +15116,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1107</v>
       </c>
@@ -15162,7 +15169,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1108</v>
       </c>
@@ -15215,7 +15222,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1109</v>
       </c>
@@ -15268,7 +15275,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1110</v>
       </c>
@@ -15321,7 +15328,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1111</v>
       </c>
@@ -15374,7 +15381,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1112</v>
       </c>
@@ -15427,7 +15434,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1113</v>
       </c>
@@ -15480,7 +15487,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1114</v>
       </c>
@@ -15533,7 +15540,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1115</v>
       </c>
@@ -15586,7 +15593,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1116</v>
       </c>
@@ -15639,7 +15646,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1117</v>
       </c>
@@ -15692,7 +15699,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1118</v>
       </c>
@@ -15751,14 +15758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
@@ -15772,7 +15779,7 @@
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1119</v>
       </c>
@@ -15807,7 +15814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1126</v>
       </c>
@@ -15842,7 +15849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1127</v>
       </c>
@@ -15877,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1128</v>
       </c>
@@ -15912,7 +15919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1129</v>
       </c>
@@ -15947,7 +15954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1130</v>
       </c>
@@ -15982,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1131</v>
       </c>
@@ -16017,7 +16024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1132</v>
       </c>
@@ -16052,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1133</v>
       </c>
@@ -16087,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1134</v>
       </c>
@@ -16122,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1135</v>
       </c>
@@ -16157,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1136</v>
       </c>
@@ -16192,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1137</v>
       </c>
@@ -16227,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1138</v>
       </c>
@@ -16262,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1139</v>
       </c>
@@ -16297,7 +16304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1140</v>
       </c>
@@ -16332,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1141</v>
       </c>
@@ -16367,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1142</v>
       </c>
@@ -16402,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1143</v>
       </c>
@@ -16437,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1144</v>
       </c>
@@ -16472,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1145</v>
       </c>
@@ -16507,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1146</v>
       </c>
@@ -16542,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1147</v>
       </c>
@@ -16577,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1148</v>
       </c>
@@ -16612,7 +16619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1149</v>
       </c>
@@ -16647,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1150</v>
       </c>
@@ -16682,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1151</v>
       </c>
@@ -16717,7 +16724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1152</v>
       </c>
@@ -16752,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1153</v>
       </c>
@@ -16787,7 +16794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1154</v>
       </c>
@@ -16822,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1155</v>
       </c>
@@ -16857,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1156</v>
       </c>
@@ -16892,7 +16899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16927,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1158</v>
       </c>
@@ -16962,7 +16969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16997,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1160</v>
       </c>
@@ -17032,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1161</v>
       </c>
@@ -17067,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1162</v>
       </c>
@@ -17102,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1163</v>
       </c>
@@ -17137,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1164</v>
       </c>
@@ -17172,7 +17179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1165</v>
       </c>
@@ -17207,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1166</v>
       </c>
@@ -17242,7 +17249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1167</v>
       </c>
@@ -17277,7 +17284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1168</v>
       </c>
@@ -17312,7 +17319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1169</v>
       </c>
@@ -17347,7 +17354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1170</v>
       </c>
@@ -17382,7 +17389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1171</v>
       </c>
@@ -17417,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1172</v>
       </c>
@@ -17452,7 +17459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1173</v>
       </c>
@@ -17487,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1174</v>
       </c>
@@ -17522,7 +17529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1175</v>
       </c>
@@ -17557,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1176</v>
       </c>
@@ -17592,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1177</v>
       </c>
@@ -17627,7 +17634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1178</v>
       </c>
@@ -17662,7 +17669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1179</v>
       </c>
@@ -17697,7 +17704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1180</v>
       </c>
@@ -17732,7 +17739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1181</v>
       </c>
@@ -17767,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1182</v>
       </c>
@@ -17802,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1183</v>
       </c>
@@ -17837,7 +17844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1184</v>
       </c>
@@ -17872,7 +17879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1185</v>
       </c>
@@ -17907,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1186</v>
       </c>
@@ -17942,7 +17949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1187</v>
       </c>
@@ -17977,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1188</v>
       </c>
@@ -18012,7 +18019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1189</v>
       </c>
@@ -18047,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1190</v>
       </c>
@@ -18082,7 +18089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1191</v>
       </c>
@@ -18117,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1192</v>
       </c>
@@ -18152,7 +18159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1193</v>
       </c>
@@ -18187,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1194</v>
       </c>
@@ -18222,7 +18229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1195</v>
       </c>
@@ -18257,7 +18264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1196</v>
       </c>
@@ -18292,7 +18299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1197</v>
       </c>
@@ -18327,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1198</v>
       </c>
@@ -18362,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1199</v>
       </c>
@@ -18397,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1200</v>
       </c>
@@ -18438,21 +18445,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1201</v>
       </c>
@@ -18466,7 +18473,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1208</v>
       </c>
@@ -18480,7 +18487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1209</v>
       </c>
